--- a/profilePresntaion/myUtils/games.xlsx
+++ b/profilePresntaion/myUtils/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\WebExp\WebExperiment\profilePresntaion\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761BC77-FFE3-43BA-AAED-179B7EED1B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB773EA-0B09-46EF-AC97-0CF278ECF86A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="3180" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>friendship</t>
   </si>
   <si>
-    <t>conflict</t>
-  </si>
-  <si>
     <t>tutorial game</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>לא לתקוף</t>
+  </si>
+  <si>
+    <t>violence</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -565,17 +565,17 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">(K3-I3)/(K3-I3+G3-M3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <f>(K3-I3)/(K3-I3+G3-M3)</f>
-        <v>0.7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -610,17 +610,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <f>(K4-I4)/(K4-I4+G4-M4)</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -655,23 +655,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <f>(K5-I5)/(K5-I5+G5-M5)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -700,23 +700,23 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <f>(K6-I6)/(K6-I6+G6-M6)</f>
+        <f t="shared" si="0"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -745,17 +745,17 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <f>(K7-I7)/(K7-I7+G7-M7)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -790,17 +790,17 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <f>(K8-I8)/(K8-I8+G8-M8)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -835,17 +835,17 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <f>(K9-I9)/(K9-I9+G9-M9)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -880,17 +880,17 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <f>(K10-I10)/(K10-I10+G10-M10)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
